--- a/CEI_to_TEI_CEI.xlsx
+++ b/CEI_to_TEI_CEI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\CEI_TEIP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winslow\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$C$1:$C$385</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="731">
   <si>
     <t>front</t>
   </si>
@@ -72,9 +75,6 @@
     <t>desc</t>
   </si>
   <si>
-    <t>an attribute of date</t>
-  </si>
-  <si>
     <t>foreign</t>
   </si>
   <si>
@@ -105,9 +105,6 @@
     <t>material</t>
   </si>
   <si>
-    <t>the MOM idno needs to move into the header</t>
-  </si>
-  <si>
     <t>the contents of index need to be uniformly treated with &lt;term&gt; or other allowed elements</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>probably needs support as well</t>
   </si>
   <si>
-    <t>additions</t>
-  </si>
-  <si>
     <t>physDesc</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>legalActor type="sigillant"</t>
   </si>
   <si>
-    <t>additions type="ownership"</t>
-  </si>
-  <si>
     <t>propose more formal structure of seal for future TEI</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>figDesc</t>
   </si>
   <si>
-    <t>see att.msClass</t>
-  </si>
-  <si>
     <t>needs significant cleaning!</t>
   </si>
   <si>
@@ -1125,15 +1113,6 @@
     <t>lat. + dt.</t>
   </si>
   <si>
-    <t>dt. (durch Einschnitte rechtsungültig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            gemacht)</t>
-  </si>
-  <si>
-    <t>dt. (durch Einschnitt rechtsungültig</t>
-  </si>
-  <si>
     <t>Kerbzettel</t>
   </si>
   <si>
@@ -1518,9 +1497,6 @@
     <t>roleName</t>
   </si>
   <si>
-    <t>bibleScope</t>
-  </si>
-  <si>
     <t>remove</t>
   </si>
   <si>
@@ -1545,21 +1521,6 @@
     <t>check types and likely discard</t>
   </si>
   <si>
-    <t>tei:publicationStmt/tei:idno</t>
-  </si>
-  <si>
-    <t>teipublicationStmt/tei:date</t>
-  </si>
-  <si>
-    <t>tei:titleStmt/tei:editor</t>
-  </si>
-  <si>
-    <t>tei:notesStmt/tei:relatedItem</t>
-  </si>
-  <si>
-    <t>&lt;revisionDesc&gt;&lt;list&gt; &lt;item&gt; &lt;date</t>
-  </si>
-  <si>
     <t>&lt;non-tag&gt;</t>
   </si>
   <si>
@@ -1999,6 +1960,267 @@
   </si>
   <si>
     <t>authen type="signed"&gt;&lt;legalActor type="notary"&gt;</t>
+  </si>
+  <si>
+    <t>ISO 693-3</t>
+  </si>
+  <si>
+    <t>deu, lat</t>
+  </si>
+  <si>
+    <t>ita, lat</t>
+  </si>
+  <si>
+    <t>heb, lat</t>
+  </si>
+  <si>
+    <t>ces, lat</t>
+  </si>
+  <si>
+    <t>eng, lat</t>
+  </si>
+  <si>
+    <t>rus, lat</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>lat, deu</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>lat, deu, ces</t>
+  </si>
+  <si>
+    <t>ces, deu</t>
+  </si>
+  <si>
+    <t>EXTENT</t>
+  </si>
+  <si>
+    <t>rus, chu</t>
+  </si>
+  <si>
+    <t>ron-Cyr</t>
+  </si>
+  <si>
+    <t>lat, ces</t>
+  </si>
+  <si>
+    <t>deu,ces</t>
+  </si>
+  <si>
+    <t>lat, ita</t>
+  </si>
+  <si>
+    <t>"decorated in golden letters"</t>
+  </si>
+  <si>
+    <t>decorated</t>
+  </si>
+  <si>
+    <t>only charter 3 in latin</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>deu, ces</t>
+  </si>
+  <si>
+    <t>deu, lat, ces</t>
+  </si>
+  <si>
+    <t>&lt;material type ="parchment"&gt;</t>
+  </si>
+  <si>
+    <t>lat, ita,</t>
+  </si>
+  <si>
+    <t>ces, lat, deu</t>
+  </si>
+  <si>
+    <t>cces, deu, lat</t>
+  </si>
+  <si>
+    <t>lat, ces, deu</t>
+  </si>
+  <si>
+    <t>deu, ces, lat</t>
+  </si>
+  <si>
+    <t>bul</t>
+  </si>
+  <si>
+    <t>nds</t>
+  </si>
+  <si>
+    <t>gml</t>
+  </si>
+  <si>
+    <t>&lt;material type ="paper"&gt;</t>
+  </si>
+  <si>
+    <t>nds, lat</t>
+  </si>
+  <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>nld</t>
+  </si>
+  <si>
+    <t>lat, spa</t>
+  </si>
+  <si>
+    <t>deu, fra</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>pat, pol</t>
+  </si>
+  <si>
+    <t>lat, gre</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>ara, fas, tur</t>
+  </si>
+  <si>
+    <t>&lt;material type ="paper"&gt; | &lt;auth type="split"&gt;</t>
+  </si>
+  <si>
+    <t>ddeu, lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;auth type="split"&gt;</t>
+  </si>
+  <si>
+    <t>dt. (durch Einschnitte rechtsungültig gemacht)</t>
+  </si>
+  <si>
+    <t>dt. (durch Einschnitt rechtsungültig gemacht)</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>deu, rus</t>
+  </si>
+  <si>
+    <t>deu, swe</t>
+  </si>
+  <si>
+    <t>rus, deu</t>
+  </si>
+  <si>
+    <t>glg</t>
+  </si>
+  <si>
+    <t>lat, hun</t>
+  </si>
+  <si>
+    <t>fro</t>
+  </si>
+  <si>
+    <t>sla</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>srp</t>
+  </si>
+  <si>
+    <t>ita, srp</t>
+  </si>
+  <si>
+    <t>printed</t>
+  </si>
+  <si>
+    <t>slv</t>
+  </si>
+  <si>
+    <t>other languages</t>
+  </si>
+  <si>
+    <t>lat, chu</t>
+  </si>
+  <si>
+    <t>tam, sin</t>
+  </si>
+  <si>
+    <t>titleStmt/editor</t>
+  </si>
+  <si>
+    <t>publicationStmt/idno</t>
+  </si>
+  <si>
+    <t>notesStmt/relatedItem</t>
+  </si>
+  <si>
+    <t>publicationStmt/date</t>
+  </si>
+  <si>
+    <t>revisionDesc/list/item/date</t>
+  </si>
+  <si>
+    <t>needs to be encoded as an att.msClass value</t>
+  </si>
+  <si>
+    <t>an attribute of date. recode according to att.datable.w3c or att.datable.iso</t>
+  </si>
+  <si>
+    <t>convert values using att.ranging to cover min/max</t>
+  </si>
+  <si>
+    <t>1 in practice for our conversions? We should have a  MOM idno, which needs to move into the header, and a MS idno in the archIdentifier area</t>
+  </si>
+  <si>
+    <t>see controlled values in other worksheet</t>
+  </si>
+  <si>
+    <t>only one of each in practice?</t>
+  </si>
+  <si>
+    <t>note type="ownership"</t>
+  </si>
+  <si>
+    <t>biblScope</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2072,6 +2294,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2352,1143 +2577,1532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="B15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+      <c r="B17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>531</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>475</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>546</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>532</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>554</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>540</v>
+      </c>
+      <c r="D39" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>546</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>551</v>
+      </c>
+      <c r="D50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>553</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>559</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>560</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>562</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>565</v>
-      </c>
-      <c r="C50" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>567</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>556</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>557</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>560</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>561</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>562</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="5" customFormat="1">
+      <c r="A61" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="5" customFormat="1">
+      <c r="A62" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>566</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>568</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>570</v>
       </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>571</v>
       </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>572</v>
       </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="B70" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>573</v>
       </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>574</v>
       </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
         <v>575</v>
       </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
-      <c r="A61" s="4" t="s">
+      <c r="C73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>577</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="4" t="s">
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>578</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>579</v>
       </c>
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>580</v>
       </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>581</v>
       </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>582</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B80" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B81" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>585</v>
+      </c>
+      <c r="B82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>584</v>
-      </c>
-      <c r="B68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>585</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>586</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B85" t="s">
+        <v>643</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>589</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B88" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>586</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C89" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="5" customFormat="1">
+      <c r="A90" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>594</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>596</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>597</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B96" t="s">
+        <v>480</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>600</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B98" t="s">
+        <v>486</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B99" t="s">
+        <v>481</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B100" t="s">
+        <v>482</v>
+      </c>
+      <c r="C100" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>604</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>605</v>
+      </c>
+      <c r="C102" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B103" t="s">
+        <v>483</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>608</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B106" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>587</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>588</v>
-      </c>
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>591</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>592</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>593</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>594</v>
-      </c>
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>595</v>
-      </c>
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>596</v>
-      </c>
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B80" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B81" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>599</v>
-      </c>
-      <c r="B82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C84" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B85" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>603</v>
-      </c>
-      <c r="B86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B87" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B88" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>606</v>
-      </c>
-      <c r="B89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="5" customFormat="1">
-      <c r="A90" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>608</v>
-      </c>
-      <c r="B91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>609</v>
-      </c>
-      <c r="B92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="C106" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="B93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>612</v>
-      </c>
-      <c r="B95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B96" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>614</v>
-      </c>
-      <c r="B97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="B98" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B99" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B100" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>618</v>
-      </c>
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B103" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>621</v>
-      </c>
-      <c r="B104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>622</v>
-      </c>
-      <c r="B105" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B106" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B108" t="s">
+        <v>488</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>612</v>
+      </c>
+      <c r="B109" t="s">
+        <v>729</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B110" t="s">
+        <v>487</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B111" t="s">
+        <v>730</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>615</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>616</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B115" t="s">
+        <v>490</v>
+      </c>
+      <c r="C115" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C116" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>620</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>621</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>622</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>623</v>
+      </c>
+      <c r="B120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B121" t="s">
+        <v>492</v>
+      </c>
+      <c r="C121" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>625</v>
       </c>
-      <c r="B108" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>626</v>
       </c>
-      <c r="B109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="3" t="s">
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B124" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B125" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>629</v>
+      </c>
+      <c r="B126" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B127" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C127" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>631</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>633</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B131" t="s">
+        <v>472</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="5" customFormat="1">
+      <c r="A132" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>636</v>
+      </c>
+      <c r="B133" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>637</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>638</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>639</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>640</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="6">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="5" customFormat="1">
+      <c r="A138" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="5" customFormat="1">
+      <c r="A139" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>629</v>
-      </c>
-      <c r="B112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>630</v>
-      </c>
-      <c r="B113" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B140" s="6" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C140" s="6">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B116" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>634</v>
-      </c>
-      <c r="B117" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>635</v>
-      </c>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>636</v>
-      </c>
-      <c r="B119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>637</v>
-      </c>
-      <c r="B120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B121" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>639</v>
-      </c>
-      <c r="B122" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>640</v>
-      </c>
-      <c r="B123" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B124" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B125" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>643</v>
-      </c>
-      <c r="B126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B127" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>645</v>
-      </c>
-      <c r="B128" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>647</v>
-      </c>
-      <c r="B130" t="s">
-        <v>61</v>
-      </c>
-      <c r="C130" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B131" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="5" customFormat="1">
-      <c r="A132" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>650</v>
-      </c>
-      <c r="B133" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>651</v>
-      </c>
-      <c r="B134" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>652</v>
-      </c>
-      <c r="B135" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>654</v>
-      </c>
-      <c r="B137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C137" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="5" customFormat="1">
-      <c r="A138" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" s="5" customFormat="1">
-      <c r="A139" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>511</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C140" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3502,1948 +4116,3252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A387"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="C13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="C28" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="C29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="C35" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>651</v>
+      </c>
+      <c r="C40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="C42" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B43" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="C44" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B46" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="75">
+      <c r="A47" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75">
+      <c r="A48" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B48" t="s">
+        <v>645</v>
+      </c>
+      <c r="C48" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B49" t="s">
+        <v>645</v>
+      </c>
+      <c r="C49" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B50" t="s">
+        <v>645</v>
+      </c>
+      <c r="C50" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B51" t="s">
+        <v>645</v>
+      </c>
+      <c r="C51" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B52" t="s">
+        <v>645</v>
+      </c>
+      <c r="C52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B53" t="s">
+        <v>645</v>
+      </c>
+      <c r="C53" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="60">
+      <c r="A54" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B54" t="s">
+        <v>645</v>
+      </c>
+      <c r="C54" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="60">
+      <c r="A55" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B55" t="s">
+        <v>645</v>
+      </c>
+      <c r="C55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B56" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B57" t="s">
+        <v>645</v>
+      </c>
+      <c r="C57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="75">
+      <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B58" t="s">
+        <v>645</v>
+      </c>
+      <c r="C58" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B59" t="s">
+        <v>645</v>
+      </c>
+      <c r="C59" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
+      <c r="A60" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B60" t="s">
+        <v>645</v>
+      </c>
+      <c r="C60" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45">
+      <c r="A61" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B61" t="s">
+        <v>645</v>
+      </c>
+      <c r="C61" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="C62" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B63" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B64" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="C65" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="135">
+      <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="C67" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B68" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B69" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B70" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="75">
+      <c r="A71" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B71" t="s">
+        <v>662</v>
+      </c>
+      <c r="C71" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B73" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B74" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B75" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B77" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B80" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B82" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B84" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="7" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B86" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B87" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B93" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B94" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B95" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B96" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B97" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B98" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B99" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B100" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B101" t="s">
+        <v>651</v>
+      </c>
+      <c r="C101" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B102" t="s">
+        <v>653</v>
+      </c>
+      <c r="C102" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B103" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B104" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B105" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B106" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B107" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B108" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B109" t="s">
+        <v>651</v>
+      </c>
+      <c r="C109" t="s">
+        <v>652</v>
+      </c>
+      <c r="D109" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B110" t="s">
+        <v>651</v>
+      </c>
+      <c r="C110" t="s">
+        <v>652</v>
+      </c>
+      <c r="D110" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B111" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B112" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" t="s">
+        <v>652</v>
+      </c>
+      <c r="D112" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B113" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B114" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B115" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B116" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B117" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B118" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
+        <v>648</v>
+      </c>
+      <c r="D119" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B120" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B121" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B122" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B123" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B124" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B125" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B127" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B128" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B129" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B130" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B131" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B132" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B133" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B134" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B135" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B136" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B137" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B138" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B139" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B140" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B141" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B142" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B143" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B144" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B145" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="C146" t="s">
+        <v>652</v>
+      </c>
+      <c r="D146" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B147" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B148" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B149" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B150" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B151" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B153" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="7" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B154" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B155" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B156" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B157" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30">
+      <c r="A158" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B158" t="s">
+        <v>653</v>
+      </c>
+      <c r="C158" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B159" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B160" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="7" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B161" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B162" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B163" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B164" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B165" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B166" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B167" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B168" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B169" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B170" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B171" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B172" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B173" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B174" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B175" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B176" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B177" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B178" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B179" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B180" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B181" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="7" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B182" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B183" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="7" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B184" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B185" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="7" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="C186" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B187" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="C188" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B189" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="C190" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="C191" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B192" t="s">
+        <v>651</v>
+      </c>
+      <c r="C192" t="s">
+        <v>652</v>
+      </c>
+      <c r="D192" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B193" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B194" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B195" t="s">
+        <v>293</v>
+      </c>
+      <c r="C195" t="s">
+        <v>652</v>
+      </c>
+      <c r="D195" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="C196" t="s">
+        <v>652</v>
+      </c>
+      <c r="D196" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B197" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B198" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B199" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B200" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B201" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="C202" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B203" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="7" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B204" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B205" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B206" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B207" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B208" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B209" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B210" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="B211" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="B212" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="7" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="B213" t="s">
+        <v>651</v>
+      </c>
+      <c r="C213" t="s">
+        <v>652</v>
+      </c>
+      <c r="D213" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+      <c r="B214" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="B215" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+      <c r="C216" t="s">
+        <v>652</v>
+      </c>
+      <c r="D216" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="C217" t="s">
+        <v>652</v>
+      </c>
+      <c r="D217" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+      <c r="C218" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="C219" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+      <c r="B220" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="B221" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="7" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="B222" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="B223" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+      <c r="B224" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="B225" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="7" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="C226" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B227" t="s">
+        <v>684</v>
+      </c>
+      <c r="C227" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="B228" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="B229" t="s">
+        <v>687</v>
+      </c>
+      <c r="C229" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="7" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+      <c r="B230" t="s">
+        <v>684</v>
+      </c>
+      <c r="C230" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="B231" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="7" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+      <c r="B232" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="7" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="B233" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="7" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+      <c r="B234" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="B235" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="B236" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="B237" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="7" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+      <c r="B238" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="C239" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B240" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="B241" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="B242" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="B243" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="B244" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="B245" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="B246" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="B247" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="B248" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="B249" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+      <c r="B250" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="7" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="C251" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="B252" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="7" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+      <c r="C253" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+      <c r="C254" t="s">
+        <v>652</v>
+      </c>
+      <c r="D254" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="C255" t="s">
+        <v>652</v>
+      </c>
+      <c r="D255" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+      <c r="B256" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="C257" t="s">
+        <v>652</v>
+      </c>
+      <c r="D257" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B258" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="D259" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="30">
+      <c r="A260" s="7" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="C260" t="s">
+        <v>652</v>
+      </c>
+      <c r="D260" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="C261" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="30">
+      <c r="A262" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B262" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="B263" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="7" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="C264" t="s">
+        <v>652</v>
+      </c>
+      <c r="D264" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B265" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="7" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B266" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B267" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="7" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B268" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="C269" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="7" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="B270" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B271" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="B272" t="s">
+        <v>293</v>
+      </c>
+      <c r="C272" t="s">
+        <v>652</v>
+      </c>
+      <c r="D272" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B273" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="275" spans="1:4">
+      <c r="A275" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B275" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B276" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="C277" t="s">
+        <v>652</v>
+      </c>
+      <c r="D277" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="7" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B278" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="7" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="B279" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="7" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B280" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B281" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="7" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B282" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B283" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B284" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="7" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B285" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="7" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B286" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B287" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B288" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B289" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="7" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B290" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="7" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B291" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="B292" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="294" spans="1:2">
+      <c r="A294" s="7" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B294" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="7" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="B295" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B296" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="B297" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="B298" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B299" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B300" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B301" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="7" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B302" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="7" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B303" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="7" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B304" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B305" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="B306" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+      <c r="B307" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="7" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+      <c r="B308" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+      <c r="B309" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+      <c r="B310" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+      <c r="B311" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+      <c r="B312" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+      <c r="B313" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="7" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+      <c r="B314" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+      <c r="B315" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="7" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+      <c r="B316" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+      <c r="B317" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+      <c r="B318" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="7" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+      <c r="B319" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+      <c r="B320" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="7" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+      <c r="B321" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+      <c r="B322" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+      <c r="B323" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+      <c r="B324" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="7" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+      <c r="B325" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="7" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+      <c r="B326" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+      <c r="B327" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+      <c r="B328" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+      <c r="B329" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+      <c r="B330" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+      <c r="B331" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="7" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+      <c r="C332" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+      <c r="B333" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="7" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+      <c r="B334" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+      <c r="B335" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="7" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+      <c r="B336" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+      <c r="B337" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="7" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+      <c r="B338" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+      <c r="B339" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+      <c r="B340" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+      <c r="B341" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="7" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+      <c r="B342" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+      <c r="B343" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+      <c r="B344" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+      <c r="B345" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="7" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+      <c r="B346" t="s">
+        <v>293</v>
+      </c>
+      <c r="C346" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+      <c r="B347" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="7" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+      <c r="B348" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="7" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+      <c r="B349" t="s">
+        <v>293</v>
+      </c>
+      <c r="C349" t="s">
+        <v>652</v>
+      </c>
+      <c r="D349" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+      <c r="B350" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+      <c r="B351" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="7" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+      <c r="C352" t="s">
+        <v>652</v>
+      </c>
+      <c r="D352" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="7" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+      <c r="B353" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="7" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+      <c r="B354" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+      <c r="B355" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="7" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+      <c r="B356" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+      <c r="B357" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="7" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+      <c r="B358" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+      <c r="C359" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="7" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+      <c r="B360" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+      <c r="B361" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="7" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+    <row r="363" spans="1:4">
+      <c r="A363" s="7" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+      <c r="B363" t="s">
+        <v>651</v>
+      </c>
+      <c r="C363" t="s">
+        <v>652</v>
+      </c>
+      <c r="D363" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="7" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+      <c r="B364" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="7" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+      <c r="B365" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="7" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+      <c r="B366" t="s">
+        <v>651</v>
+      </c>
+      <c r="C366" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="7" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+      <c r="B367" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="7" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+      <c r="B368" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="7" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+      <c r="B369" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="7" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+      <c r="B370" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="7" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+      <c r="B371" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="7" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+      <c r="B372" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+      <c r="B373" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="7" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+      <c r="B374" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="7" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+      <c r="B375" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="7" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+      <c r="B376" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="7" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+      <c r="C377" t="s">
+        <v>652</v>
+      </c>
+      <c r="D377" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="7" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+      <c r="B378" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="7" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+      <c r="C379" t="s">
+        <v>652</v>
+      </c>
+      <c r="D379" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="7" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+      <c r="B380" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="7" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+      <c r="B381" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="7" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+      <c r="B382" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="7" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+      <c r="B383" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+      <c r="B384" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30">
+      <c r="A385" s="7" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>477</v>
+      <c r="C385" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C385"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CEI_to_TEI_CEI.xlsx
+++ b/CEI_to_TEI_CEI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winslow\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\CEI_TEIP5\tei_cei\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="733">
   <si>
     <t>front</t>
   </si>
@@ -2221,6 +2221,12 @@
   </si>
   <si>
     <t>biblScope</t>
+  </si>
+  <si>
+    <t>issued/quote/date</t>
+  </si>
+  <si>
+    <t>additions</t>
   </si>
 </sst>
 </file>
@@ -2579,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3481,7 +3487,7 @@
         <v>585</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>732</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -3693,6 +3699,9 @@
     <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>605</v>
+      </c>
+      <c r="B102" t="s">
+        <v>731</v>
       </c>
       <c r="C102" s="6">
         <v>2</v>

--- a/CEI_to_TEI_CEI.xlsx
+++ b/CEI_to_TEI_CEI.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$C$1:$C$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$C$1:$C$380</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,6 +27,14 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="lang_MOM_LUT" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="Z:\Documents\CEI_TEIP5\tei_cei\lang_MOM_LUT.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="733">
   <si>
@@ -294,9 +302,6 @@
     <t>diploPart type="inscriptio"</t>
   </si>
   <si>
-    <t>Lang_MOM</t>
-  </si>
-  <si>
     <t>Deutsch, Latein</t>
   </si>
   <si>
@@ -1962,9 +1967,6 @@
     <t>authen type="signed"&gt;&lt;legalActor type="notary"&gt;</t>
   </si>
   <si>
-    <t>ISO 693-3</t>
-  </si>
-  <si>
     <t>deu, lat</t>
   </si>
   <si>
@@ -2227,6 +2229,12 @@
   </si>
   <si>
     <t>additions</t>
+  </si>
+  <si>
+    <t>lang_mom</t>
+  </si>
+  <si>
+    <t>lang_iso</t>
   </si>
 </sst>
 </file>
@@ -2305,9 +2313,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2320,8 +2332,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="lang_Mom_list">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="lang_MOM_entry" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lang_mom" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lang_iso" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="lang_Mom_list_Map" RootElement="lang_Mom_list" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B384" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:B384"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="lang_mom" name="lang_mom" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/lang_Mom_list/lang_MOM_entry/lang_mom" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="lang_iso" name="lang_iso">
+      <xmlColumnPr mapId="1" xpath="/lang_Mom_list/lang_MOM_entry/lang_iso" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2585,11 +2638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2599,35 +2652,35 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -2635,15 +2688,15 @@
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -2651,10 +2704,10 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -2662,10 +2715,10 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -2673,15 +2726,15 @@
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -2689,7 +2742,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -2700,7 +2753,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2714,10 +2767,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -2725,7 +2778,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -2736,10 +2789,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
@@ -2747,7 +2800,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2758,7 +2811,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -2767,12 +2820,12 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -2783,7 +2836,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -2794,7 +2847,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -2805,10 +2858,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -2816,7 +2869,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -2830,7 +2883,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2841,7 +2894,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2852,7 +2905,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2863,7 +2916,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -2877,7 +2930,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2886,12 +2939,12 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
@@ -2902,18 +2955,18 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2924,7 +2977,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -2935,7 +2988,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -2946,7 +2999,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
@@ -2957,7 +3010,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
@@ -2968,7 +3021,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -2979,7 +3032,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2990,15 +3043,15 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D39" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -3009,7 +3062,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -3020,7 +3073,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -3031,7 +3084,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -3045,7 +3098,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -3056,7 +3109,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -3067,7 +3120,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
@@ -3078,7 +3131,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -3089,7 +3142,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
@@ -3100,7 +3153,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -3111,15 +3164,15 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" t="s">
         <v>551</v>
-      </c>
-      <c r="D50" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3130,7 +3183,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
@@ -3141,7 +3194,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -3152,7 +3205,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -3163,7 +3216,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -3174,7 +3227,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
@@ -3188,7 +3241,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
@@ -3199,7 +3252,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -3208,12 +3261,12 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
@@ -3224,7 +3277,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -3233,12 +3286,12 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="5" customFormat="1">
       <c r="A61" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>67</v>
@@ -3246,7 +3299,7 @@
     </row>
     <row r="62" spans="1:4" s="5" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -3254,7 +3307,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B63" t="s">
         <v>85</v>
@@ -3265,7 +3318,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -3279,7 +3332,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
         <v>87</v>
@@ -3290,7 +3343,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -3301,7 +3354,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B67" t="s">
         <v>86</v>
@@ -3312,7 +3365,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -3323,7 +3376,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -3334,21 +3387,21 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B70" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C70" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -3359,7 +3412,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -3368,12 +3421,12 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
@@ -3381,7 +3434,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
@@ -3392,7 +3445,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s">
         <v>59</v>
@@ -3401,12 +3454,12 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3415,12 +3468,12 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -3429,12 +3482,12 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -3443,12 +3496,12 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -3462,10 +3515,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C80" s="6">
         <v>2</v>
@@ -3473,10 +3526,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C81" s="6">
         <v>2</v>
@@ -3484,10 +3537,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B82" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -3495,7 +3548,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C83" s="6">
         <v>2</v>
@@ -3503,21 +3556,21 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C84" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B85" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C85" s="6">
         <v>2</v>
@@ -3525,7 +3578,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
@@ -3536,10 +3589,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C87" s="6">
         <v>2</v>
@@ -3547,10 +3600,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C88" s="6">
         <v>2</v>
@@ -3558,7 +3611,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -3569,7 +3622,7 @@
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1">
       <c r="A90" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>67</v>
@@ -3577,7 +3630,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -3588,7 +3641,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
@@ -3599,7 +3652,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B93" t="s">
         <v>46</v>
@@ -3610,7 +3663,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C94" s="6">
         <v>2</v>
@@ -3618,7 +3671,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
@@ -3629,10 +3682,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C96" s="6">
         <v>2</v>
@@ -3640,7 +3693,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s">
         <v>29</v>
@@ -3651,10 +3704,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C98" s="6">
         <v>2</v>
@@ -3662,10 +3715,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C99" s="6">
         <v>1</v>
@@ -3673,10 +3726,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C100" s="6">
         <v>2</v>
@@ -3684,7 +3737,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
@@ -3693,15 +3746,15 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C102" s="6">
         <v>2</v>
@@ -3709,10 +3762,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C103" s="6">
         <v>2</v>
@@ -3720,7 +3773,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s">
         <v>47</v>
@@ -3731,7 +3784,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B105" t="s">
         <v>34</v>
@@ -3742,10 +3795,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C106" s="6">
         <v>2</v>
@@ -3753,7 +3806,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -3764,10 +3817,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C108" s="6">
         <v>2</v>
@@ -3775,10 +3828,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C109" s="6">
         <v>2</v>
@@ -3786,10 +3839,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C110" s="6">
         <v>2</v>
@@ -3797,10 +3850,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C111" s="6">
         <v>2</v>
@@ -3808,7 +3861,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B112" t="s">
         <v>35</v>
@@ -3822,7 +3875,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B113" t="s">
         <v>50</v>
@@ -3833,19 +3886,19 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B115" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C115" s="6">
         <v>2</v>
@@ -3853,10 +3906,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B116" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C116" s="6">
         <v>2</v>
@@ -3864,7 +3917,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -3875,7 +3928,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B118" t="s">
         <v>36</v>
@@ -3886,7 +3939,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -3897,7 +3950,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -3908,10 +3961,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B121" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C121" s="6">
         <v>2</v>
@@ -3919,7 +3972,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B122" t="s">
         <v>55</v>
@@ -3930,7 +3983,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -3941,10 +3994,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C124" s="6">
         <v>2</v>
@@ -3952,10 +4005,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C125" s="6">
         <v>2</v>
@@ -3963,7 +4016,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B126" t="s">
         <v>56</v>
@@ -3974,10 +4027,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B127" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C127" s="6">
         <v>2</v>
@@ -3985,7 +4038,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B128" t="s">
         <v>38</v>
@@ -3996,7 +4049,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C129" s="6">
         <v>1</v>
@@ -4004,7 +4057,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B130" t="s">
         <v>57</v>
@@ -4018,10 +4071,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C131" s="6">
         <v>2</v>
@@ -4029,7 +4082,7 @@
     </row>
     <row r="132" spans="1:4" s="5" customFormat="1">
       <c r="A132" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>67</v>
@@ -4037,10 +4090,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -4048,7 +4101,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
@@ -4059,7 +4112,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B135" t="s">
         <v>40</v>
@@ -4070,7 +4123,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C136" s="6">
         <v>2</v>
@@ -4078,7 +4131,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
@@ -4087,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1">
@@ -4097,21 +4150,21 @@
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1">
       <c r="A139" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
+        <v>496</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="6">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
         <v>498</v>
-      </c>
-      <c r="C140" s="6">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4125,24 +4178,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>644</v>
+      <c r="B2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4150,7 +4211,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4158,7 +4219,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4166,39 +4227,42 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>649</v>
+      </c>
+      <c r="C8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4206,7 +4270,7 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4214,23 +4278,20 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
-        <v>652</v>
+      <c r="B13" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4238,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4246,7 +4307,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>654</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4254,15 +4315,15 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4270,15 +4331,15 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4286,7 +4347,7 @@
         <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4294,10 +4355,10 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="7" t="s">
         <v>108</v>
       </c>
@@ -4310,7 +4371,10 @@
         <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>653</v>
+        <v>651</v>
+      </c>
+      <c r="C23" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4318,15 +4382,18 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>656</v>
+      </c>
+      <c r="C24" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4334,55 +4401,52 @@
         <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
       <c r="A27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>643</v>
+      </c>
+      <c r="C30" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="75">
       <c r="A31" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4390,55 +4454,61 @@
         <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
       <c r="C35" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>651</v>
+      </c>
+      <c r="C37" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60">
       <c r="A38" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45">
       <c r="A39" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>660</v>
+        <v>649</v>
+      </c>
+      <c r="C39" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4446,327 +4516,318 @@
         <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>651</v>
-      </c>
-      <c r="C40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B41" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:3" ht="45">
       <c r="A42" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="B42" t="s">
+        <v>643</v>
+      </c>
       <c r="C42" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="75">
       <c r="A43" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="B44" t="s">
+        <v>651</v>
+      </c>
       <c r="C44" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>643</v>
+      </c>
+      <c r="C45" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="375">
       <c r="A46" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="75">
+        <v>643</v>
+      </c>
+      <c r="C46" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="409.5">
       <c r="A47" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C47" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="180">
       <c r="A48" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C48" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="165">
       <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C49" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="120">
       <c r="A50" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C50" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90">
       <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>645</v>
-      </c>
-      <c r="C51" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="90">
       <c r="A52" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C52" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="315">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C53" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="60">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="285">
       <c r="A54" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C54" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="60">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
       <c r="A55" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="105">
       <c r="A56" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30">
+        <v>643</v>
+      </c>
+      <c r="C56" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="375">
       <c r="A57" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="75">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="90">
       <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>645</v>
-      </c>
-      <c r="C58" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="120">
       <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>645</v>
-      </c>
-      <c r="C59" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="210">
       <c r="A60" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C60" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="45">
       <c r="A61" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B61" t="s">
-        <v>645</v>
-      </c>
-      <c r="C61" t="s">
-        <v>652</v>
-      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="B62" t="s">
+        <v>649</v>
+      </c>
       <c r="C62" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45">
       <c r="A64" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B64" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:3" ht="30">
       <c r="A65" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="409.5">
       <c r="A66" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B66" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="135">
+      <c r="C66" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C67" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
       <c r="A68" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="45">
       <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="390">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="75">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>662</v>
-      </c>
-      <c r="C71" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45">
       <c r="A72" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
       <c r="A73" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30">
       <c r="A74" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4774,7 +4835,7 @@
         <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4782,10 +4843,10 @@
         <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30">
       <c r="A77" s="7" t="s">
         <v>163</v>
       </c>
@@ -4798,151 +4859,154 @@
         <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30">
       <c r="A79" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30">
       <c r="A80" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
       <c r="A90" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
       <c r="A92" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
       <c r="A94" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30">
       <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>651</v>
+        <v>643</v>
+      </c>
+      <c r="C96" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4950,56 +5014,53 @@
         <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>655</v>
+      </c>
+      <c r="C97" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30">
       <c r="A98" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B99" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45">
       <c r="A100" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="60">
       <c r="A101" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B101" t="s">
         <v>651</v>
       </c>
-      <c r="C101" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+    </row>
+    <row r="102" spans="1:4" ht="30">
       <c r="A102" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>653</v>
-      </c>
-      <c r="C102" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30">
       <c r="A103" s="7" t="s">
         <v>189</v>
       </c>
@@ -5007,102 +5068,102 @@
         <v>664</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="30">
       <c r="A104" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>664</v>
+      </c>
+      <c r="C104" t="s">
+        <v>650</v>
+      </c>
+      <c r="D104" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30">
       <c r="A105" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B105" t="s">
+        <v>662</v>
+      </c>
+      <c r="C105" t="s">
+        <v>650</v>
+      </c>
+      <c r="D105" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="30">
       <c r="A106" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30">
       <c r="A107" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>658</v>
+      </c>
+      <c r="C107" t="s">
+        <v>650</v>
+      </c>
+      <c r="D107" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="60">
       <c r="A108" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30">
       <c r="A109" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>651</v>
-      </c>
-      <c r="C109" t="s">
-        <v>652</v>
-      </c>
-      <c r="D109" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30">
       <c r="A110" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>651</v>
-      </c>
-      <c r="C110" t="s">
-        <v>652</v>
-      </c>
-      <c r="D110" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="60">
       <c r="A111" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B111" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30">
       <c r="A112" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
-      </c>
-      <c r="C112" t="s">
-        <v>652</v>
-      </c>
-      <c r="D112" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30">
       <c r="A113" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5110,39 +5171,42 @@
         <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>655</v>
+      </c>
+      <c r="D114" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30">
       <c r="A115" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30">
       <c r="A116" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30">
       <c r="A117" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="45">
       <c r="A118" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B118" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5150,74 +5214,71 @@
         <v>205</v>
       </c>
       <c r="B119" t="s">
-        <v>648</v>
-      </c>
-      <c r="D119" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30">
       <c r="A120" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30">
       <c r="A121" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30">
       <c r="A122" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30">
       <c r="A123" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="45">
       <c r="A124" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="30">
       <c r="A125" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30">
       <c r="A126" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="45">
       <c r="A127" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5225,309 +5286,309 @@
         <v>214</v>
       </c>
       <c r="B128" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="45">
       <c r="A129" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B129" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="45">
       <c r="A130" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="60">
       <c r="A131" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="30">
       <c r="A132" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B132" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="45">
       <c r="A133" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="45">
       <c r="A134" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="75">
       <c r="A135" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B135" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="45">
       <c r="A136" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="60">
       <c r="A137" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B137" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="45">
       <c r="A139" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B139" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="30">
       <c r="A140" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30">
       <c r="A141" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B141" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>644</v>
+      </c>
+      <c r="C141" t="s">
+        <v>650</v>
+      </c>
+      <c r="D141" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="30">
       <c r="A142" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B142" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="30">
       <c r="A143" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B143" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="30">
       <c r="A144" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B144" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B145" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+    </row>
+    <row r="146" spans="1:3" ht="30">
       <c r="A146" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C146" t="s">
-        <v>652</v>
-      </c>
-      <c r="D146" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="B146" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="60">
       <c r="A147" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="75">
       <c r="A148" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B148" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="45">
       <c r="A149" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="60">
       <c r="A150" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B150" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B151" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30">
       <c r="A153" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B153" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>662</v>
+      </c>
+      <c r="C153" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30">
       <c r="A154" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B154" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B155" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30">
       <c r="A156" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B156" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="90">
       <c r="A157" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B157" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="45">
       <c r="A158" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B158" t="s">
-        <v>653</v>
-      </c>
-      <c r="C158" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B159" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B160" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="45">
       <c r="A161" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B161" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="45">
       <c r="A162" s="7" t="s">
         <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30">
       <c r="A163" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="45">
       <c r="A164" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="45">
       <c r="A165" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B165" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5535,31 +5596,31 @@
         <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="30">
       <c r="A167" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="45">
       <c r="A168" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B168" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30">
       <c r="A169" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B169" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5567,15 +5628,15 @@
         <v>256</v>
       </c>
       <c r="B170" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30">
       <c r="A171" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B171" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5583,7 +5644,7 @@
         <v>258</v>
       </c>
       <c r="B172" t="s">
-        <v>660</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5591,7 +5652,7 @@
         <v>259</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5599,7 +5660,7 @@
         <v>260</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5607,23 +5668,23 @@
         <v>261</v>
       </c>
       <c r="B175" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="30">
       <c r="A176" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B176" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30">
       <c r="A177" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B177" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5631,111 +5692,129 @@
         <v>264</v>
       </c>
       <c r="B178" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="45">
       <c r="A179" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B179" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30">
       <c r="A180" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B180" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30">
       <c r="A181" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B181" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>643</v>
+      </c>
+      <c r="C181" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30">
       <c r="A182" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B182" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="30">
       <c r="A183" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B183" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>643</v>
+      </c>
+      <c r="C183" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="30">
       <c r="A184" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B185" t="s">
-        <v>680</v>
+      <c r="C185" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="7" t="s">
         <v>272</v>
       </c>
+      <c r="B186" t="s">
+        <v>679</v>
+      </c>
       <c r="C186" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B187" t="s">
-        <v>681</v>
+      <c r="C187" t="s">
+        <v>650</v>
+      </c>
+      <c r="D187" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C188" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="B188" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="45">
       <c r="A189" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B189" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+    </row>
+    <row r="190" spans="1:4" ht="45">
       <c r="A190" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C190" t="s">
-        <v>690</v>
+        <v>650</v>
+      </c>
+      <c r="D190" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="7" t="s">
         <v>277</v>
       </c>
+      <c r="B191" t="s">
+        <v>649</v>
+      </c>
       <c r="C191" t="s">
-        <v>690</v>
+        <v>650</v>
+      </c>
+      <c r="D191" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5745,19 +5824,13 @@
       <c r="B192" t="s">
         <v>651</v>
       </c>
-      <c r="C192" t="s">
-        <v>652</v>
-      </c>
-      <c r="D192" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>653</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5765,32 +5838,20 @@
         <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B195" t="s">
-        <v>293</v>
-      </c>
-      <c r="C195" t="s">
-        <v>652</v>
-      </c>
-      <c r="D195" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C196" t="s">
-        <v>652</v>
-      </c>
-      <c r="D196" t="s">
-        <v>682</v>
+      <c r="B196" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5798,15 +5859,18 @@
         <v>283</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>292</v>
+      </c>
+      <c r="C197" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="30">
       <c r="A198" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5814,7 +5878,7 @@
         <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>654</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5822,23 +5886,20 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B201" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C202" t="s">
-        <v>652</v>
+      <c r="B202" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5846,7 +5907,7 @@
         <v>289</v>
       </c>
       <c r="B203" t="s">
-        <v>653</v>
+        <v>292</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5854,7 +5915,7 @@
         <v>290</v>
       </c>
       <c r="B204" t="s">
-        <v>293</v>
+        <v>651</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5862,7 +5923,7 @@
         <v>291</v>
       </c>
       <c r="B205" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5870,7 +5931,7 @@
         <v>292</v>
       </c>
       <c r="B206" t="s">
-        <v>645</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5878,7 +5939,7 @@
         <v>293</v>
       </c>
       <c r="B207" t="s">
-        <v>293</v>
+        <v>643</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5886,7 +5947,13 @@
         <v>294</v>
       </c>
       <c r="B208" t="s">
-        <v>645</v>
+        <v>649</v>
+      </c>
+      <c r="C208" t="s">
+        <v>650</v>
+      </c>
+      <c r="D208" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5894,7 +5961,7 @@
         <v>295</v>
       </c>
       <c r="B209" t="s">
-        <v>651</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5902,7 +5969,7 @@
         <v>296</v>
       </c>
       <c r="B210" t="s">
-        <v>293</v>
+        <v>649</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5910,7 +5977,13 @@
         <v>297</v>
       </c>
       <c r="B211" t="s">
-        <v>651</v>
+        <v>649</v>
+      </c>
+      <c r="C211" t="s">
+        <v>650</v>
+      </c>
+      <c r="D211" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5918,7 +5991,13 @@
         <v>298</v>
       </c>
       <c r="B212" t="s">
-        <v>651</v>
+        <v>649</v>
+      </c>
+      <c r="C212" t="s">
+        <v>650</v>
+      </c>
+      <c r="D212" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5926,83 +6005,68 @@
         <v>299</v>
       </c>
       <c r="B213" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C213" t="s">
-        <v>652</v>
-      </c>
-      <c r="D213" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30">
       <c r="A214" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B214" t="s">
         <v>651</v>
+      </c>
+      <c r="C214" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B215" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C216" t="s">
-        <v>652</v>
-      </c>
-      <c r="D216" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+    </row>
+    <row r="217" spans="1:4" ht="45">
       <c r="A217" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="C217" t="s">
-        <v>652</v>
-      </c>
-      <c r="D217" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C218" t="s">
-        <v>652</v>
-      </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C219" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="B219" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="30">
       <c r="A220" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B220" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="30">
       <c r="A221" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B221" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="C221" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6010,39 +6074,45 @@
         <v>308</v>
       </c>
       <c r="B222" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>651</v>
+      </c>
+      <c r="C222" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30">
       <c r="A223" s="7" t="s">
         <v>309</v>
       </c>
       <c r="B223" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="30">
       <c r="A224" s="7" t="s">
         <v>310</v>
       </c>
       <c r="B224" t="s">
-        <v>680</v>
+        <v>681</v>
+      </c>
+      <c r="C224" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B225" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="C225" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="30">
       <c r="A226" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C226" t="s">
-        <v>690</v>
+      <c r="B226" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6050,29 +6120,23 @@
         <v>313</v>
       </c>
       <c r="B227" t="s">
-        <v>684</v>
-      </c>
-      <c r="C227" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="30">
       <c r="A228" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B228" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30">
       <c r="A229" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B229" t="s">
-        <v>687</v>
-      </c>
-      <c r="C229" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6080,18 +6144,15 @@
         <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
-      </c>
-      <c r="C230" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30">
       <c r="A231" s="7" t="s">
         <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6099,31 +6160,34 @@
         <v>318</v>
       </c>
       <c r="B232" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30">
       <c r="A233" s="7" t="s">
         <v>319</v>
       </c>
       <c r="B233" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30">
       <c r="A234" s="7" t="s">
         <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>647</v>
+      </c>
+      <c r="C234" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="30">
       <c r="A235" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B235" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6131,7 +6195,7 @@
         <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6139,31 +6203,28 @@
         <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="30">
       <c r="A238" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B238" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+    </row>
+    <row r="239" spans="1:3" ht="30">
       <c r="A239" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C239" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="B239" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="30">
       <c r="A240" s="7" t="s">
         <v>326</v>
       </c>
       <c r="B240" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6171,23 +6232,23 @@
         <v>327</v>
       </c>
       <c r="B241" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="30">
       <c r="A242" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B242" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="45">
       <c r="A243" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B243" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6195,7 +6256,7 @@
         <v>330</v>
       </c>
       <c r="B244" t="s">
-        <v>694</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6203,23 +6264,26 @@
         <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="30">
       <c r="A246" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B246" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="C246" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="30">
       <c r="A247" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B247" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6227,7 +6291,10 @@
         <v>334</v>
       </c>
       <c r="B248" t="s">
-        <v>653</v>
+        <v>684</v>
+      </c>
+      <c r="C248" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6235,142 +6302,139 @@
         <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>652</v>
+      </c>
+      <c r="C249" t="s">
+        <v>650</v>
+      </c>
+      <c r="D249" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="45">
       <c r="A250" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B250" t="s">
-        <v>654</v>
+      <c r="C250" t="s">
+        <v>650</v>
+      </c>
+      <c r="D250" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C251" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="B251" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="45">
       <c r="A252" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B252" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="C252" t="s">
+        <v>650</v>
+      </c>
+      <c r="D252" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="75">
       <c r="A253" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C253" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+    </row>
+    <row r="254" spans="1:4" ht="75">
       <c r="A254" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C254" t="s">
-        <v>652</v>
-      </c>
       <c r="D254" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="7" t="s">
         <v>341</v>
       </c>
+      <c r="B255" t="s">
+        <v>292</v>
+      </c>
       <c r="C255" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D255" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="60">
       <c r="A256" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B256" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="C256" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="75">
       <c r="A257" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C257" t="s">
-        <v>652</v>
-      </c>
-      <c r="D257" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="B257" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="60">
       <c r="A258" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B258" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+    </row>
+    <row r="259" spans="1:4" ht="195">
       <c r="A259" s="7" t="s">
         <v>345</v>
       </c>
+      <c r="C259" t="s">
+        <v>650</v>
+      </c>
       <c r="D259" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="30">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="90">
       <c r="A260" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C260" t="s">
-        <v>652</v>
-      </c>
-      <c r="D260" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+    </row>
+    <row r="261" spans="1:4" ht="120">
       <c r="A261" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C261" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="30">
+      <c r="B261" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="75">
       <c r="A262" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B262" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="45">
       <c r="A263" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="B263" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="7" t="s">
         <v>350</v>
       </c>
+      <c r="B264" t="s">
+        <v>653</v>
+      </c>
       <c r="C264" t="s">
-        <v>652</v>
-      </c>
-      <c r="D264" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6378,7 +6442,7 @@
         <v>351</v>
       </c>
       <c r="B265" t="s">
-        <v>655</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6386,31 +6450,34 @@
         <v>352</v>
       </c>
       <c r="B266" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="45">
       <c r="A267" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B267" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>649</v>
+      </c>
+      <c r="C267" t="s">
+        <v>650</v>
+      </c>
+      <c r="D267" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="75">
       <c r="A268" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="B268" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C269" t="s">
-        <v>652</v>
+      <c r="B269" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6418,88 +6485,82 @@
         <v>356</v>
       </c>
       <c r="B270" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="30">
       <c r="A271" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B271" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="30">
       <c r="A272" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B272" t="s">
-        <v>293</v>
+        <v>651</v>
       </c>
       <c r="C272" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D272" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B273" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+    </row>
+    <row r="274" spans="1:2" ht="60">
       <c r="A274" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B274" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="60">
+      <c r="A275" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="B275" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="B275" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="B276" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:2" ht="30">
       <c r="A277" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C277" t="s">
-        <v>652</v>
-      </c>
-      <c r="D277" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="B277" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="7" t="s">
         <v>362</v>
       </c>
       <c r="B278" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B279" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="7" t="s">
         <v>364</v>
       </c>
@@ -6507,76 +6568,76 @@
         <v>651</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:2">
       <c r="A281" s="7" t="s">
         <v>365</v>
       </c>
       <c r="B281" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B282" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="30">
       <c r="A283" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B283" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="30">
       <c r="A284" s="7" t="s">
         <v>368</v>
       </c>
       <c r="B284" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
       <c r="A285" s="7" t="s">
         <v>369</v>
       </c>
       <c r="B285" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="7" t="s">
         <v>370</v>
       </c>
       <c r="B286" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="30">
       <c r="A287" s="7" t="s">
         <v>371</v>
       </c>
       <c r="B287" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B288" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="30">
       <c r="A289" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B289" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6584,7 +6645,7 @@
         <v>374</v>
       </c>
       <c r="B290" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6592,28 +6653,28 @@
         <v>375</v>
       </c>
       <c r="B291" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B292" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+    </row>
+    <row r="293" spans="1:2" ht="30">
       <c r="A293" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
+      <c r="B293" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30">
       <c r="A294" s="7" t="s">
         <v>378</v>
       </c>
       <c r="B294" t="s">
-        <v>704</v>
+        <v>648</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6621,15 +6682,15 @@
         <v>379</v>
       </c>
       <c r="B295" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="60">
       <c r="A296" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B296" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6637,7 +6698,7 @@
         <v>381</v>
       </c>
       <c r="B297" t="s">
-        <v>705</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6645,23 +6706,23 @@
         <v>382</v>
       </c>
       <c r="B298" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="30">
       <c r="A299" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B299" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30">
       <c r="A300" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B300" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6669,7 +6730,7 @@
         <v>385</v>
       </c>
       <c r="B301" t="s">
-        <v>706</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6677,7 +6738,7 @@
         <v>386</v>
       </c>
       <c r="B302" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6685,7 +6746,7 @@
         <v>387</v>
       </c>
       <c r="B303" t="s">
-        <v>293</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6693,7 +6754,7 @@
         <v>388</v>
       </c>
       <c r="B304" t="s">
-        <v>651</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6701,7 +6762,7 @@
         <v>389</v>
       </c>
       <c r="B305" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6709,7 +6770,7 @@
         <v>390</v>
       </c>
       <c r="B306" t="s">
-        <v>293</v>
+        <v>656</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6717,7 +6778,7 @@
         <v>391</v>
       </c>
       <c r="B307" t="s">
-        <v>658</v>
+        <v>292</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6725,7 +6786,7 @@
         <v>392</v>
       </c>
       <c r="B308" t="s">
-        <v>293</v>
+        <v>654</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6733,7 +6794,7 @@
         <v>393</v>
       </c>
       <c r="B309" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6741,7 +6802,7 @@
         <v>394</v>
       </c>
       <c r="B310" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6749,7 +6810,7 @@
         <v>395</v>
       </c>
       <c r="B311" t="s">
-        <v>707</v>
+        <v>292</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6757,7 +6818,7 @@
         <v>396</v>
       </c>
       <c r="B312" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6765,7 +6826,7 @@
         <v>397</v>
       </c>
       <c r="B313" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6773,7 +6834,7 @@
         <v>398</v>
       </c>
       <c r="B314" t="s">
-        <v>293</v>
+        <v>706</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6781,7 +6842,7 @@
         <v>399</v>
       </c>
       <c r="B315" t="s">
-        <v>708</v>
+        <v>292</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6789,18 +6850,18 @@
         <v>400</v>
       </c>
       <c r="B316" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="45">
       <c r="A317" s="7" t="s">
         <v>401</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="30">
       <c r="A318" s="7" t="s">
         <v>402</v>
       </c>
@@ -6808,12 +6869,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" ht="30">
       <c r="A319" s="7" t="s">
         <v>403</v>
       </c>
       <c r="B319" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6821,7 +6882,7 @@
         <v>404</v>
       </c>
       <c r="B320" t="s">
-        <v>653</v>
+        <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6829,7 +6890,7 @@
         <v>405</v>
       </c>
       <c r="B321" t="s">
-        <v>293</v>
+        <v>707</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6837,7 +6898,7 @@
         <v>406</v>
       </c>
       <c r="B322" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6845,7 +6906,7 @@
         <v>407</v>
       </c>
       <c r="B323" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6853,7 +6914,7 @@
         <v>408</v>
       </c>
       <c r="B324" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6861,7 +6922,7 @@
         <v>409</v>
       </c>
       <c r="B325" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6869,7 +6930,7 @@
         <v>410</v>
       </c>
       <c r="B326" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6877,7 +6938,10 @@
         <v>411</v>
       </c>
       <c r="B327" t="s">
-        <v>645</v>
+        <v>704</v>
+      </c>
+      <c r="C327" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6885,7 +6949,7 @@
         <v>412</v>
       </c>
       <c r="B328" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6893,7 +6957,7 @@
         <v>413</v>
       </c>
       <c r="B329" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6901,23 +6965,20 @@
         <v>414</v>
       </c>
       <c r="B330" t="s">
-        <v>711</v>
+        <v>656</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B331" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C332" t="s">
-        <v>690</v>
+      <c r="B332" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6925,7 +6986,7 @@
         <v>417</v>
       </c>
       <c r="B333" t="s">
-        <v>693</v>
+        <v>654</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6933,31 +6994,31 @@
         <v>418</v>
       </c>
       <c r="B334" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="60">
       <c r="A335" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B335" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="45">
       <c r="A336" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B336" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="45">
       <c r="A337" s="7" t="s">
         <v>421</v>
       </c>
       <c r="B337" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6965,15 +7026,15 @@
         <v>422</v>
       </c>
       <c r="B338" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="30">
       <c r="A339" s="7" t="s">
         <v>423</v>
       </c>
       <c r="B339" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6981,15 +7042,18 @@
         <v>424</v>
       </c>
       <c r="B340" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="30">
       <c r="A341" s="7" t="s">
         <v>425</v>
       </c>
       <c r="B341" t="s">
-        <v>651</v>
+        <v>292</v>
+      </c>
+      <c r="C341" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6997,7 +7061,7 @@
         <v>426</v>
       </c>
       <c r="B342" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7005,7 +7069,7 @@
         <v>427</v>
       </c>
       <c r="B343" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7013,42 +7077,51 @@
         <v>428</v>
       </c>
       <c r="B344" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>649</v>
+      </c>
+      <c r="C344" t="s">
+        <v>650</v>
+      </c>
+      <c r="D344" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="30">
       <c r="A345" s="7" t="s">
         <v>429</v>
       </c>
       <c r="B345" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="30">
       <c r="A346" s="7" t="s">
         <v>430</v>
       </c>
       <c r="B346" t="s">
-        <v>293</v>
-      </c>
-      <c r="C346" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="30">
       <c r="A347" s="7" t="s">
         <v>431</v>
       </c>
       <c r="B347" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>651</v>
+      </c>
+      <c r="C347" t="s">
+        <v>650</v>
+      </c>
+      <c r="D347" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="45">
       <c r="A348" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B348" t="s">
-        <v>653</v>
+        <v>292</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -7056,13 +7129,7 @@
         <v>433</v>
       </c>
       <c r="B349" t="s">
-        <v>293</v>
-      </c>
-      <c r="C349" t="s">
-        <v>652</v>
-      </c>
-      <c r="D349" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -7070,26 +7137,20 @@
         <v>434</v>
       </c>
       <c r="B350" t="s">
-        <v>651</v>
+        <v>712</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B351" t="s">
-        <v>714</v>
-      </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C352" t="s">
-        <v>652</v>
-      </c>
-      <c r="D352" t="s">
-        <v>715</v>
+      <c r="B352" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7097,7 +7158,7 @@
         <v>437</v>
       </c>
       <c r="B353" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7105,7 +7166,10 @@
         <v>438</v>
       </c>
       <c r="B354" t="s">
-        <v>651</v>
+        <v>649</v>
+      </c>
+      <c r="C354" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7113,7 +7177,7 @@
         <v>439</v>
       </c>
       <c r="B355" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7129,23 +7193,26 @@
         <v>441</v>
       </c>
       <c r="B357" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B358" t="s">
-        <v>651</v>
+      <c r="C358" t="s">
+        <v>650</v>
+      </c>
+      <c r="D358" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C359" t="s">
-        <v>652</v>
+      <c r="B359" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7153,20 +7220,23 @@
         <v>444</v>
       </c>
       <c r="B360" t="s">
-        <v>651</v>
+        <v>712</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B361" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="C361" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="30">
       <c r="A362" s="7" t="s">
         <v>446</v>
+      </c>
+      <c r="B362" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7174,13 +7244,7 @@
         <v>447</v>
       </c>
       <c r="B363" t="s">
-        <v>651</v>
-      </c>
-      <c r="C363" t="s">
-        <v>652</v>
-      </c>
-      <c r="D363" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7188,15 +7252,15 @@
         <v>448</v>
       </c>
       <c r="B364" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="30">
       <c r="A365" s="7" t="s">
         <v>449</v>
       </c>
       <c r="B365" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7204,10 +7268,7 @@
         <v>450</v>
       </c>
       <c r="B366" t="s">
-        <v>651</v>
-      </c>
-      <c r="C366" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7223,7 +7284,7 @@
         <v>452</v>
       </c>
       <c r="B368" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7231,7 +7292,7 @@
         <v>453</v>
       </c>
       <c r="B369" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7239,7 +7300,7 @@
         <v>454</v>
       </c>
       <c r="B370" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7247,7 +7308,7 @@
         <v>455</v>
       </c>
       <c r="B371" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7255,7 +7316,13 @@
         <v>456</v>
       </c>
       <c r="B372" t="s">
-        <v>653</v>
+        <v>292</v>
+      </c>
+      <c r="C372" t="s">
+        <v>650</v>
+      </c>
+      <c r="D372" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7263,7 +7330,7 @@
         <v>457</v>
       </c>
       <c r="B373" t="s">
-        <v>293</v>
+        <v>649</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7273,51 +7340,45 @@
       <c r="B374" t="s">
         <v>651</v>
       </c>
+      <c r="C374" t="s">
+        <v>650</v>
+      </c>
+      <c r="D374" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="7" t="s">
         <v>459</v>
       </c>
       <c r="B375" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="30">
       <c r="A376" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="B376" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C377" t="s">
-        <v>652</v>
-      </c>
-      <c r="D377" t="s">
-        <v>713</v>
+      <c r="B377" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B378" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C379" t="s">
-        <v>652</v>
-      </c>
-      <c r="D379" t="s">
-        <v>713</v>
+      <c r="B379" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7325,7 +7386,10 @@
         <v>464</v>
       </c>
       <c r="B380" t="s">
-        <v>651</v>
+        <v>656</v>
+      </c>
+      <c r="C380" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7333,7 +7397,7 @@
         <v>465</v>
       </c>
       <c r="B381" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7341,7 +7405,7 @@
         <v>466</v>
       </c>
       <c r="B382" t="s">
-        <v>658</v>
+        <v>712</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7349,28 +7413,20 @@
         <v>467</v>
       </c>
       <c r="B383" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="90">
       <c r="A384" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B384" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="30">
-      <c r="A385" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C385" t="s">
-        <v>652</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C385"/>
+  <autoFilter ref="C1:C380"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>